--- a/ServiceNow说明.xlsx
+++ b/ServiceNow说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tangz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsk/Desktop/workspace/fs-sn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABFDE3-2EFF-46E6-81D8-56C4E5CC31CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C34310-1DF0-9E4F-A319-880FB9673AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35920" yWindow="-4820" windowWidth="28140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.仕様" sheetId="2" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="O (4)" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.仕様'!$A$1:$AB$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">O!$A$1:$AB$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'O (2)'!$A$1:$AB$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'O (3)'!$A$1:$AB$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'O (4)'!$A$1:$AB$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.仕様'!$A$1:$AA$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">O!$A$1:$AA$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'O (2)'!$A$1:$AA$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'O (3)'!$A$1:$AA$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'O (4)'!$A$1:$AA$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,25 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>仕様説明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>チケット管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +50,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,7 +63,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +101,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,92 +379,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7D0DB6-8666-4804-A2A5-A4913EFB37EE}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A2:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="270" zoomScaleNormal="100" zoomScaleSheetLayoutView="270" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
   </sheetData>
@@ -494,16 +467,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59940315-80D1-4114-92F5-B2051BAAFC7F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="200" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,16 +492,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9420E6-E048-4D76-9D5D-B0B3D705C823}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="200" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,16 +517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5EE4F5-6F71-400C-812D-5073737B3DC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="200" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,16 +542,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26785E72-156C-4544-B21C-15794407B2F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView view="pageBreakPreview" zoomScale="210" zoomScaleNormal="100" zoomScaleSheetLayoutView="210" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
